--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W5_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W5_H50_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5481927710843374</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.978494623655914</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7027027027027026</v>
+        <v>0.7126436781609196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4880952380952381</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.09919592358356608</v>
+        <v>0.08611301829104662</v>
       </c>
       <c r="J2" t="n">
-        <v>1310.768154942186</v>
+        <v>1123.985358055355</v>
       </c>
       <c r="K2" t="n">
-        <v>2449783.376162504</v>
+        <v>1731234.22305612</v>
       </c>
       <c r="L2" t="n">
-        <v>1565.178384773603</v>
+        <v>1315.763741351813</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5485340630893178</v>
+        <v>0.6809541251160722</v>
       </c>
     </row>
   </sheetData>
